--- a/Alpha/alpha_code/Work_FIle.xlsx
+++ b/Alpha/alpha_code/Work_FIle.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3" documentId="8_{403BDA24-E6FA-4E8E-A53B-56844B919A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74EE89E3-7D6C-4968-A7E6-068894A9B737}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D69B942-EE9E-4D1E-B21F-7E4026F3F176}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D69B942-EE9E-4D1E-B21F-7E4026F3F176}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -2930,7 +2930,7 @@
   <dimension ref="A1:G2031"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
